--- a/ED50/Past_T3_Genets_ED50.xlsx
+++ b/ED50/Past_T3_Genets_ED50.xlsx
@@ -1,106 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2917054de0bc48a0/Documents/Barshis_Lab/2021-June_Mote/ED50/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_AF6BFDCE8F79A8D366075C52F336FA34A3E4F308" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7009F48D-47B5-46DD-AA8D-8A136E64DDFC}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
-  <si>
-    <t>Genotype</t>
-  </si>
-  <si>
-    <t>site</t>
-  </si>
-  <si>
-    <t>T3</t>
-  </si>
-  <si>
-    <t>T4</t>
-  </si>
-  <si>
-    <t>T5</t>
-  </si>
-  <si>
-    <t>avgfit</t>
-  </si>
-  <si>
-    <t>min</t>
-  </si>
-  <si>
-    <t>max</t>
-  </si>
-  <si>
-    <t>diff</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>offshore</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>inshore</t>
-  </si>
-  <si>
-    <t>07</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,14 +63,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -202,7 +109,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -234,27 +141,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -286,24 +175,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -479,314 +350,370 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Genotype</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>site</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>T3</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>T4</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>T5</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>avgfit</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>offshore</t>
+        </is>
       </c>
       <c r="C2">
-        <v>36.789910379729633</v>
+        <v>36.78991037972963</v>
       </c>
       <c r="D2">
-        <v>36.648612848576647</v>
+        <v>36.64861284857665</v>
       </c>
       <c r="E2">
-        <v>36.317313554843402</v>
+        <v>36.3173135548434</v>
       </c>
       <c r="F2">
-        <v>36.585278927716558</v>
+        <v>36.58527892771656</v>
       </c>
       <c r="G2">
-        <v>36.317313554843402</v>
+        <v>36.3173135548434</v>
       </c>
       <c r="H2">
-        <v>36.789910379729633</v>
+        <v>36.78991037972963</v>
       </c>
       <c r="I2">
-        <v>0.47259682488622451</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
+        <v>0.4725968248862245</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>offshore</t>
+        </is>
       </c>
       <c r="C3">
         <v>36.99032351674785</v>
       </c>
       <c r="D3">
-        <v>37.071385849975037</v>
+        <v>37.07138584997504</v>
       </c>
       <c r="E3">
-        <v>37.129051354473397</v>
+        <v>37.1290513544734</v>
       </c>
       <c r="F3">
-        <v>37.063586907065428</v>
+        <v>37.06358690706543</v>
       </c>
       <c r="G3">
         <v>36.99032351674785</v>
       </c>
       <c r="H3">
-        <v>37.129051354473397</v>
+        <v>37.1290513544734</v>
       </c>
       <c r="I3">
         <v>0.138727837725547</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>offshore</t>
+        </is>
       </c>
       <c r="C4">
-        <v>36.715623224390527</v>
+        <v>36.71562322439053</v>
       </c>
       <c r="D4">
-        <v>36.997792651539612</v>
+        <v>36.99779265153961</v>
       </c>
       <c r="E4">
-        <v>37.162423102154243</v>
+        <v>37.16242310215424</v>
       </c>
       <c r="F4">
-        <v>36.958612992694789</v>
+        <v>36.95861299269479</v>
       </c>
       <c r="G4">
-        <v>36.715623224390527</v>
+        <v>36.71562322439053</v>
       </c>
       <c r="H4">
-        <v>37.162423102154243</v>
+        <v>37.16242310215424</v>
       </c>
       <c r="I4">
-        <v>0.44679987776370211</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
+        <v>0.4467998777637021</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>offshore</t>
+        </is>
       </c>
       <c r="C5">
-        <v>36.320249286209851</v>
+        <v>36.32024928620985</v>
       </c>
       <c r="D5">
         <v>37.23062189257125</v>
       </c>
       <c r="E5">
-        <v>37.383859714660957</v>
+        <v>37.38385971466096</v>
       </c>
       <c r="F5">
         <v>36.97824363114735</v>
       </c>
       <c r="G5">
-        <v>36.320249286209851</v>
+        <v>36.32024928620985</v>
       </c>
       <c r="H5">
-        <v>37.383859714660957</v>
+        <v>37.38385971466096</v>
       </c>
       <c r="I5">
-        <v>1.0636104284511061</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
+        <v>1.063610428451106</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>offshore</t>
+        </is>
       </c>
       <c r="C6">
-        <v>37.096634414078281</v>
+        <v>37.09663441407828</v>
       </c>
       <c r="D6">
-        <v>36.950605036881342</v>
+        <v>36.95060503688134</v>
       </c>
       <c r="E6">
-        <v>37.093122742514069</v>
+        <v>37.09312274251407</v>
       </c>
       <c r="F6">
-        <v>37.046787397824559</v>
+        <v>37.04678739782456</v>
       </c>
       <c r="G6">
-        <v>36.950605036881342</v>
+        <v>36.95060503688134</v>
       </c>
       <c r="H6">
-        <v>37.096634414078281</v>
+        <v>37.09663441407828</v>
       </c>
       <c r="I6">
-        <v>0.14602937719694609</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
+        <v>0.1460293771969461</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>inshore</t>
+        </is>
       </c>
       <c r="C7">
-        <v>37.731535480333669</v>
+        <v>37.73153548033367</v>
       </c>
       <c r="D7">
-        <v>37.551636857359412</v>
+        <v>37.55163685735941</v>
       </c>
       <c r="E7">
-        <v>37.433519387292797</v>
+        <v>37.4335193872928</v>
       </c>
       <c r="F7">
-        <v>37.572230574995302</v>
+        <v>37.5722305749953</v>
       </c>
       <c r="G7">
-        <v>37.433519387292797</v>
+        <v>37.4335193872928</v>
       </c>
       <c r="H7">
-        <v>37.731535480333669</v>
+        <v>37.73153548033367</v>
       </c>
       <c r="I7">
         <v>0.2980160930408644</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>inshore</t>
+        </is>
       </c>
       <c r="C8">
-        <v>37.602560836080762</v>
+        <v>37.60256083608076</v>
       </c>
       <c r="D8">
-        <v>38.194414177215499</v>
+        <v>38.1944141772155</v>
       </c>
       <c r="E8">
-        <v>38.828736293208792</v>
+        <v>38.82873629320879</v>
       </c>
       <c r="F8">
-        <v>38.208570435501677</v>
+        <v>38.20857043550168</v>
       </c>
       <c r="G8">
-        <v>37.602560836080762</v>
+        <v>37.60256083608076</v>
       </c>
       <c r="H8">
-        <v>38.828736293208792</v>
+        <v>38.82873629320879</v>
       </c>
       <c r="I8">
         <v>1.226175457128029</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>inshore</t>
+        </is>
       </c>
       <c r="C9">
-        <v>37.251944603445047</v>
+        <v>37.25194460344505</v>
       </c>
       <c r="E9">
-        <v>38.124931259038753</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
+        <v>38.12493125903875</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>inshore</t>
+        </is>
       </c>
       <c r="C10">
-        <v>37.780166451642351</v>
+        <v>37.78016645164235</v>
       </c>
       <c r="D10">
-        <v>37.307989756422522</v>
+        <v>37.30798975642252</v>
       </c>
       <c r="E10">
         <v>37.74618703982523</v>
       </c>
       <c r="F10">
-        <v>37.611447749296701</v>
+        <v>37.6114477492967</v>
       </c>
       <c r="G10">
-        <v>37.307989756422522</v>
+        <v>37.30798975642252</v>
       </c>
       <c r="H10">
-        <v>37.780166451642351</v>
+        <v>37.78016645164235</v>
       </c>
       <c r="I10">
-        <v>0.47217669521982941</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
+        <v>0.4721766952198294</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>inshore</t>
+        </is>
       </c>
       <c r="C11">
-        <v>37.347916650137421</v>
+        <v>37.34791665013742</v>
       </c>
       <c r="D11">
-        <v>37.461198452715173</v>
+        <v>37.46119845271517</v>
       </c>
       <c r="E11">
-        <v>37.345938458594468</v>
+        <v>37.34593845859447</v>
       </c>
       <c r="F11">
         <v>37.38501785381569</v>
       </c>
       <c r="G11">
-        <v>37.345938458594468</v>
+        <v>37.34593845859447</v>
       </c>
       <c r="H11">
-        <v>37.461198452715173</v>
+        <v>37.46119845271517</v>
       </c>
       <c r="I11">
         <v>0.1152599941207058</v>
